--- a/category.xlsx
+++ b/category.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23328"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent>
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Cspit-IT\3 Sem\SGP\004\Library management\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4CD01A0-AF2C-417B-B929-60557170ED38}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="105" windowWidth="14295" windowHeight="4635"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1050" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1048" uniqueCount="14">
   <si>
     <t>Creative Non-Fiction</t>
   </si>
@@ -63,8 +69,9 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -102,6 +109,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -148,7 +163,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -180,9 +195,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -214,6 +247,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -389,31 +440,31 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
-      <selection activeCell="A70" sqref="A70"/>
+    <sheetView tabSelected="1" topLeftCell="I55" workbookViewId="0">
+      <selection activeCell="M70" sqref="M70"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="36.5703125" customWidth="1"/>
-    <col min="2" max="2" width="31.85546875" customWidth="1"/>
-    <col min="3" max="3" width="32.140625" customWidth="1"/>
-    <col min="4" max="4" width="32" customWidth="1"/>
-    <col min="5" max="5" width="27.85546875" customWidth="1"/>
-    <col min="6" max="6" width="27.7109375" customWidth="1"/>
-    <col min="7" max="8" width="27.42578125" customWidth="1"/>
-    <col min="9" max="9" width="27.5703125" customWidth="1"/>
-    <col min="10" max="11" width="27.42578125" customWidth="1"/>
-    <col min="12" max="12" width="27.5703125" customWidth="1"/>
-    <col min="13" max="13" width="27.42578125" customWidth="1"/>
-    <col min="14" max="14" width="27.28515625" customWidth="1"/>
-    <col min="15" max="15" width="27.42578125" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="36.5546875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="31.88671875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="32.109375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="32.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="27.88671875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="27.6640625" collapsed="true"/>
+    <col min="7" max="8" customWidth="true" width="27.44140625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="27.5546875" collapsed="true"/>
+    <col min="10" max="11" customWidth="true" width="27.44140625" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="27.5546875" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="27.44140625" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="27.33203125" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="27.44140625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -460,7 +511,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -507,7 +558,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -554,7 +605,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -601,7 +652,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -648,7 +699,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>0</v>
       </c>
@@ -695,7 +746,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:15">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>0</v>
       </c>
@@ -742,7 +793,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:15">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>0</v>
       </c>
@@ -789,7 +840,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:15">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>0</v>
       </c>
@@ -836,7 +887,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:15">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>0</v>
       </c>
@@ -883,7 +934,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:15">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>0</v>
       </c>
@@ -930,7 +981,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:15">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>5</v>
       </c>
@@ -977,7 +1028,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:15">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>5</v>
       </c>
@@ -1024,7 +1075,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:15">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>5</v>
       </c>
@@ -1071,7 +1122,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:15">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>5</v>
       </c>
@@ -1118,7 +1169,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:15">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>5</v>
       </c>
@@ -1165,7 +1216,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:15">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>5</v>
       </c>
@@ -1212,7 +1263,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:15">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>5</v>
       </c>
@@ -1259,7 +1310,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:15">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>6</v>
       </c>
@@ -1306,7 +1357,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:15">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>6</v>
       </c>
@@ -1353,7 +1404,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:15">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>6</v>
       </c>
@@ -1400,7 +1451,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:15">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>6</v>
       </c>
@@ -1447,7 +1498,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:15">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>7</v>
       </c>
@@ -1494,7 +1545,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="24" spans="1:15">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>7</v>
       </c>
@@ -1541,7 +1592,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="25" spans="1:15">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>7</v>
       </c>
@@ -1588,7 +1639,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="26" spans="1:15">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>7</v>
       </c>
@@ -1635,7 +1686,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="27" spans="1:15">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>7</v>
       </c>
@@ -1682,7 +1733,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="28" spans="1:15">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>7</v>
       </c>
@@ -1729,7 +1780,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="29" spans="1:15">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>8</v>
       </c>
@@ -1776,7 +1827,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="1:15">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>8</v>
       </c>
@@ -1823,7 +1874,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="1:15">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>8</v>
       </c>
@@ -1870,7 +1921,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="32" spans="1:15">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>8</v>
       </c>
@@ -1917,7 +1968,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="33" spans="1:15">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>8</v>
       </c>
@@ -1964,7 +2015,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="34" spans="1:15">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>8</v>
       </c>
@@ -2011,7 +2062,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="35" spans="1:15">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>8</v>
       </c>
@@ -2058,7 +2109,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="36" spans="1:15">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>8</v>
       </c>
@@ -2105,7 +2156,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="37" spans="1:15">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>8</v>
       </c>
@@ -2152,7 +2203,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="38" spans="1:15">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>8</v>
       </c>
@@ -2199,7 +2250,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="39" spans="1:15">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>9</v>
       </c>
@@ -2246,7 +2297,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="40" spans="1:15">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>9</v>
       </c>
@@ -2293,7 +2344,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="41" spans="1:15">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>9</v>
       </c>
@@ -2340,7 +2391,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="42" spans="1:15">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>10</v>
       </c>
@@ -2387,7 +2438,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="43" spans="1:15">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>10</v>
       </c>
@@ -2434,7 +2485,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="44" spans="1:15">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>10</v>
       </c>
@@ -2481,7 +2532,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="45" spans="1:15">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>10</v>
       </c>
@@ -2528,7 +2579,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="46" spans="1:15">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>10</v>
       </c>
@@ -2575,7 +2626,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="47" spans="1:15">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>10</v>
       </c>
@@ -2622,7 +2673,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="48" spans="1:15">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>10</v>
       </c>
@@ -2669,7 +2720,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="49" spans="1:15">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>10</v>
       </c>
@@ -2716,7 +2767,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="50" spans="1:15">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>10</v>
       </c>
@@ -2763,7 +2814,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="51" spans="1:15">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>10</v>
       </c>
@@ -2810,7 +2861,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="52" spans="1:15">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>11</v>
       </c>
@@ -2857,7 +2908,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="53" spans="1:15">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>11</v>
       </c>
@@ -2904,7 +2955,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="54" spans="1:15">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>11</v>
       </c>
@@ -2951,7 +3002,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="55" spans="1:15">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>11</v>
       </c>
@@ -2998,7 +3049,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="56" spans="1:15">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>11</v>
       </c>
@@ -3045,7 +3096,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="57" spans="1:15">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>11</v>
       </c>
@@ -3092,7 +3143,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="58" spans="1:15">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>11</v>
       </c>
@@ -3139,7 +3190,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="59" spans="1:15">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>11</v>
       </c>
@@ -3186,7 +3237,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="60" spans="1:15">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>11</v>
       </c>
@@ -3233,7 +3284,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="61" spans="1:15">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>12</v>
       </c>
@@ -3280,7 +3331,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="62" spans="1:15">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>12</v>
       </c>
@@ -3327,7 +3378,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="63" spans="1:15">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>12</v>
       </c>
@@ -3374,7 +3425,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="64" spans="1:15">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>12</v>
       </c>
@@ -3421,7 +3472,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="65" spans="1:15">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>12</v>
       </c>
@@ -3468,7 +3519,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="66" spans="1:15">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>12</v>
       </c>
@@ -3515,7 +3566,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="67" spans="1:15">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>12</v>
       </c>
@@ -3562,7 +3613,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="68" spans="1:15">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>12</v>
       </c>
@@ -3609,7 +3660,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="69" spans="1:15">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>12</v>
       </c>
@@ -3656,7 +3707,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="70" spans="1:15">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>12</v>
       </c>
@@ -3694,13 +3745,7 @@
         <v>12</v>
       </c>
       <c r="M70" t="s">
-        <v>12</v>
-      </c>
-      <c r="N70" t="s">
-        <v>12</v>
-      </c>
-      <c r="O70" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -3710,24 +3755,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
